--- a/app/data/tests/mascarpone/parameters_corrupted.xlsx
+++ b/app/data/tests/mascarpone/parameters_corrupted.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">Скорость фасовки</t>
   </si>
   <si>
-    <t xml:space="preserve">Выход</t>
+    <t xml:space="preserve">Вход</t>
   </si>
   <si>
     <t xml:space="preserve">Коэффициент</t>
@@ -609,7 +609,7 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="P19" activeCellId="0" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
